--- a/data/3201.xlsx
+++ b/data/3201.xlsx
@@ -3547,37 +3547,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.4</v>
+        <v>4.4</v>
       </c>
       <c r="C2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D2" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="D2" t="n">
-        <v>6.5</v>
-      </c>
       <c r="E2" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>9.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -3587,37 +3587,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>9.9</v>
+        <v>3.7</v>
       </c>
       <c r="D3" t="n">
-        <v>8.6</v>
+        <v>3.4</v>
       </c>
       <c r="E3" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="H3" t="n">
-        <v>8.699999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>9.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4">
@@ -3627,37 +3627,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>8.9</v>
       </c>
       <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
         <v>6.4</v>
       </c>
-      <c r="E4" t="n">
-        <v>7.1</v>
-      </c>
       <c r="F4" t="n">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>8.1</v>
+        <v>5.9</v>
       </c>
       <c r="H4" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
@@ -3670,34 +3670,34 @@
         <v>7.4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.699999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
         <v>8.6</v>
       </c>
       <c r="F5" t="n">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="L5" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6">
@@ -3707,37 +3707,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.1</v>
+        <v>7.3</v>
       </c>
       <c r="C6" t="n">
-        <v>9.9</v>
+        <v>5.9</v>
       </c>
       <c r="D6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J6" t="n">
         <v>7.2</v>
       </c>
-      <c r="E6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.2</v>
-      </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="7">
@@ -3747,37 +3747,37 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E7" t="n">
         <v>7.6</v>
       </c>
-      <c r="C7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8.6</v>
-      </c>
       <c r="F7" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>9.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>8.199999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="J7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="8">
@@ -3787,37 +3787,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="C8" t="n">
-        <v>5.1</v>
+        <v>6.9</v>
       </c>
       <c r="D8" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="E8" t="n">
-        <v>9.4</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>8.9</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>9.6</v>
       </c>
       <c r="L8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3827,37 +3827,37 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F9" t="n">
         <v>4.6</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.4</v>
-      </c>
       <c r="G9" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="L9" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3867,37 +3867,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>4.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="G10" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>7.4</v>
       </c>
       <c r="I10" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>7.6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="11">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="C11" t="n">
         <v>7.8</v>
@@ -3916,28 +3916,28 @@
         <v>7.4</v>
       </c>
       <c r="E11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="G11" t="n">
         <v>6.8</v>
       </c>
-      <c r="F11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10</v>
-      </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="K11" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12">
@@ -3947,37 +3947,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="C12" t="n">
         <v>9.4</v>
       </c>
       <c r="D12" t="n">
-        <v>5.5</v>
+        <v>8.4</v>
       </c>
       <c r="E12" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="F12" t="n">
-        <v>8.1</v>
+        <v>5.4</v>
       </c>
       <c r="G12" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="13">
@@ -3987,37 +3987,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.4</v>
+        <v>7.2</v>
       </c>
       <c r="C13" t="n">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="D13" t="n">
-        <v>8.5</v>
+        <v>4.9</v>
       </c>
       <c r="E13" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>4.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="I13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="L13" t="n">
         <v>7.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.8</v>
       </c>
     </row>
     <row r="14">
@@ -4027,37 +4027,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>5.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="E14" t="n">
-        <v>5.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="H14" t="n">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="I14" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="J14" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="L14" t="n">
-        <v>6.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -4067,37 +4067,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.4</v>
+        <v>4.9</v>
       </c>
       <c r="C15" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="D15" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="E15" t="n">
-        <v>4.8</v>
+        <v>9.9</v>
       </c>
       <c r="F15" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="H15" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
         <v>4.4</v>
       </c>
       <c r="L15" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="16">
@@ -4107,37 +4107,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="C16" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="E16" t="n">
-        <v>5.5</v>
+        <v>8.4</v>
       </c>
       <c r="F16" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="G16" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="H16" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>4.8</v>
+        <v>8.9</v>
       </c>
       <c r="J16" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L16" t="n">
-        <v>9.199999999999999</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="17">
@@ -4147,37 +4147,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>7.5</v>
+        <v>4.1</v>
       </c>
       <c r="F17" t="n">
-        <v>7.6</v>
+        <v>4.4</v>
       </c>
       <c r="G17" t="n">
         <v>9.1</v>
       </c>
       <c r="H17" t="n">
-        <v>7.8</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>5.3</v>
+        <v>9.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.6</v>
+        <v>8.9</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -4187,37 +4187,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="C18" t="n">
-        <v>9.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="D18" t="n">
         <v>7.4</v>
       </c>
       <c r="E18" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="G18" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="19">
@@ -4227,37 +4227,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="D19" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>5.9</v>
+        <v>7.6</v>
       </c>
       <c r="F19" t="n">
-        <v>5.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>7.3</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="J19" t="n">
-        <v>8.699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="K19" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="L19" t="n">
-        <v>10</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="20">
@@ -4267,37 +4267,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="D20" t="n">
-        <v>9.6</v>
+        <v>4.3</v>
       </c>
       <c r="E20" t="n">
-        <v>9.4</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>9.300000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="G20" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="J20" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K20" t="n">
         <v>6.6</v>
       </c>
-      <c r="K20" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L20" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="21">
@@ -4307,37 +4307,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="C21" t="n">
-        <v>9.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="D21" t="n">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="E21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J21" t="n">
         <v>4.4</v>
       </c>
-      <c r="F21" t="n">
-        <v>6</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>7.4</v>
-      </c>
       <c r="K21" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="L21" t="n">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="22">
@@ -4347,37 +4347,37 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E22" t="n">
         <v>7.8</v>
       </c>
-      <c r="C22" t="n">
+      <c r="F22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G22" t="n">
         <v>5.6</v>
       </c>
-      <c r="D22" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="G22" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="J22" t="n">
-        <v>4.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>5.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="23">
@@ -4387,37 +4387,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="C23" t="n">
-        <v>9.300000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="D23" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>8.6</v>
+        <v>5.5</v>
       </c>
       <c r="F23" t="n">
-        <v>5.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H23" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>9.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="K23" t="n">
-        <v>8.5</v>
+        <v>9.6</v>
       </c>
       <c r="L23" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="24">
@@ -4427,37 +4427,37 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D24" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="C24" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D24" t="n">
-        <v>5</v>
-      </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>9.9</v>
+        <v>5.1</v>
       </c>
       <c r="J24" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>6.7</v>
       </c>
       <c r="L24" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="25">
@@ -4467,37 +4467,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="C25" t="n">
-        <v>8.4</v>
+        <v>5.2</v>
       </c>
       <c r="D25" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="E25" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F25" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="G25" t="n">
-        <v>4.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="I25" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="J25" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="K25" t="n">
-        <v>8.699999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="L25" t="n">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="26">
@@ -4507,37 +4507,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
       <c r="C26" t="n">
-        <v>9.9</v>
+        <v>6.4</v>
       </c>
       <c r="D26" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="E26" t="n">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="F26" t="n">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="G26" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="H26" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="I26" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="J26" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="L26" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="27">
@@ -4547,37 +4547,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.2</v>
+        <v>4.4</v>
       </c>
       <c r="C27" t="n">
         <v>9.5</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="F27" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="G27" t="n">
-        <v>4.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>4.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="28">
@@ -4587,37 +4587,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="C28" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E28" t="n">
         <v>4.6</v>
       </c>
-      <c r="E28" t="n">
-        <v>4.8</v>
-      </c>
       <c r="F28" t="n">
-        <v>2.4</v>
+        <v>5.3</v>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J28" t="n">
-        <v>9.1</v>
+        <v>7.4</v>
       </c>
       <c r="K28" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="L28" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="29">
@@ -4627,37 +4627,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="C29" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="D29" t="n">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I29" t="n">
         <v>3.6</v>
       </c>
-      <c r="F29" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H29" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
       <c r="J29" t="n">
-        <v>7.8</v>
+        <v>4.9</v>
       </c>
       <c r="K29" t="n">
-        <v>3.9</v>
+        <v>5.9</v>
       </c>
       <c r="L29" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="30">
@@ -4667,37 +4667,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="D30" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="E30" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="F30" t="n">
-        <v>9.9</v>
+        <v>6.5</v>
       </c>
       <c r="G30" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="K30" t="n">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
-        <v>9.1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="31">
@@ -4713,31 +4713,31 @@
         <v>9.9</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="E31" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="G31" t="n">
         <v>7.7</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>8.6</v>
       </c>
       <c r="J31" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L31" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4747,37 +4747,37 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C32" t="n">
         <v>8.9</v>
       </c>
-      <c r="C32" t="n">
-        <v>8.6</v>
-      </c>
       <c r="D32" t="n">
-        <v>6.9</v>
+        <v>4.7</v>
       </c>
       <c r="E32" t="n">
-        <v>8.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="F32" t="n">
-        <v>6.7</v>
+        <v>8.1</v>
       </c>
       <c r="G32" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="H32" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="I32" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="J32" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="L32" t="n">
-        <v>5.1</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="33">
@@ -4787,37 +4787,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="C33" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="F33" t="n">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H33" t="n">
         <v>5.6</v>
       </c>
-      <c r="H33" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I33" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="K33" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="L33" t="n">
-        <v>9.6</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="34">
@@ -4827,37 +4827,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="C34" t="n">
-        <v>7.1</v>
+        <v>3.7</v>
       </c>
       <c r="D34" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>4.7</v>
+        <v>8.4</v>
       </c>
       <c r="F34" t="n">
-        <v>5.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>8.6</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6</v>
+        <v>7.4</v>
       </c>
       <c r="J34" t="n">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="K34" t="n">
-        <v>9.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="35">
@@ -4867,34 +4867,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.6</v>
+        <v>7.6</v>
       </c>
       <c r="C35" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>4.4</v>
+        <v>7.4</v>
       </c>
       <c r="E35" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="F35" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
         <v>9</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L35" t="n">
         <v>3.4</v>
@@ -4907,37 +4907,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="C36" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="F36" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="G36" t="n">
-        <v>8.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I36" t="n">
-        <v>8.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="J36" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="K36" t="n">
-        <v>8.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="L36" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="37">
@@ -4947,37 +4947,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.5</v>
+        <v>4.3</v>
       </c>
       <c r="C37" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="E37" t="n">
-        <v>6.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="H37" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="I37" t="n">
-        <v>8.4</v>
+        <v>2.6</v>
       </c>
       <c r="J37" t="n">
-        <v>9.699999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="K37" t="n">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="L37" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -5000,6 +5000,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trimestres</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>FIL</t>
@@ -5143,37 +5148,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.53888888888889</v>
+        <v>7.144444444444444</v>
       </c>
       <c r="C4" t="n">
-        <v>7.872222222222224</v>
+        <v>7.613888888888888</v>
       </c>
       <c r="D4" t="n">
-        <v>6.272222222222222</v>
+        <v>6.941666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>6.544444444444444</v>
+        <v>6.677777777777778</v>
       </c>
       <c r="F4" t="n">
-        <v>5.811111111111112</v>
+        <v>6.213888888888889</v>
       </c>
       <c r="G4" t="n">
-        <v>6.372222222222224</v>
+        <v>6.994444444444444</v>
       </c>
       <c r="H4" t="n">
-        <v>4.336111111111111</v>
+        <v>4.469444444444444</v>
       </c>
       <c r="I4" t="n">
-        <v>6.591666666666666</v>
+        <v>6.913888888888889</v>
       </c>
       <c r="J4" t="n">
-        <v>7.183333333333334</v>
+        <v>6.913888888888888</v>
       </c>
       <c r="K4" t="n">
-        <v>6.252777777777776</v>
+        <v>6.938888888888889</v>
       </c>
       <c r="L4" t="n">
-        <v>6.661111111111112</v>
+        <v>6.300000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/3201.xlsx
+++ b/data/3201.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2T" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3T" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Média por Trimestre" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gostos pessoais" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,81 +502,81 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Roberto Tavares Cerqueira</t>
+          <t>Adelaide Takeda Sá</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="C2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="E2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G2" t="n">
         <v>6.2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8.5</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>8.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="J2" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="K2" t="n">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="L2" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Lúcio Macedo Magalhães</t>
+          <t>Arthur Nunes Delchiaro</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="C3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K3" t="n">
         <v>7.3</v>
       </c>
-      <c r="D3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.9</v>
       </c>
     </row>
     <row r="4">
@@ -621,1158 +622,1158 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Erasmo Vale Belchior</t>
+          <t>Carlos Bosco Ferraz</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="E5" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="F5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J5" t="n">
         <v>6.3</v>
       </c>
-      <c r="G5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6.5</v>
-      </c>
       <c r="K5" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="L5" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Tadeu Fontes Paim</t>
+          <t>Carlos Serrano Silveira</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.300000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="D6" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="E6" t="n">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="F6" t="n">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="G6" t="n">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J6" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Arthur Nunes Delchiaro</t>
+          <t>Caroline Pessoa Bernardes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="E7" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="F7" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="G7" t="n">
-        <v>6.2</v>
+        <v>9.1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="I7" t="n">
-        <v>8.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Gilson Marques Pinto</t>
+          <t>Conrado Yamada Pires</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E8" t="n">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.3</v>
-      </c>
       <c r="F8" t="n">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="G8" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K8" t="n">
         <v>8</v>
       </c>
-      <c r="I8" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.6</v>
-      </c>
       <c r="L8" t="n">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Reginaldo Belluci Madruga</t>
+          <t>Daiana Saraiva Lacerda</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="E9" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="F9" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>9.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="K9" t="n">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="L9" t="n">
-        <v>6.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Carlos Serrano Silveira</t>
+          <t>Daniela Pinto Lobo</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>7.5</v>
       </c>
       <c r="C10" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>6.3</v>
+        <v>4.6</v>
       </c>
       <c r="E10" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="F10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L10" t="n">
         <v>6.5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Milton Gimenes Batista</t>
+          <t>Eloísa Magalhães Lobo</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F11" t="n">
         <v>7.5</v>
       </c>
-      <c r="C11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5.2</v>
-      </c>
       <c r="G11" t="n">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="H11" t="n">
         <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="K11" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Gabriel Leitão Falcão</t>
+          <t>Erasmo Vale Belchior</t>
         </is>
       </c>
       <c r="B12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E12" t="n">
         <v>8.5</v>
       </c>
-      <c r="C12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H12" t="n">
         <v>6.5</v>
       </c>
-      <c r="E12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J12" t="n">
-        <v>8.9</v>
+        <v>6.5</v>
       </c>
       <c r="K12" t="n">
-        <v>8.199999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="L12" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Marcelo Cruz Justino</t>
+          <t>Francisco Rocha Barroso</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
         <v>9.5</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G13" t="n">
         <v>10</v>
       </c>
-      <c r="D13" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>7.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
       <c r="I13" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="K13" t="n">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="L13" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Carlos Bosco Ferraz</t>
+          <t>Gabriel Leitão Falcão</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="C14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G14" t="n">
         <v>9.300000000000001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7.6</v>
       </c>
       <c r="H14" t="n">
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>6.3</v>
+        <v>8.9</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Kléber Rosa dos Reis</t>
+          <t>Geraldo Melo Linhares</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>5.3</v>
       </c>
       <c r="C15" t="n">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>7.4</v>
+        <v>5.7</v>
       </c>
       <c r="E15" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="F15" t="n">
-        <v>7.9</v>
+        <v>6.4</v>
       </c>
       <c r="G15" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="H15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
         <v>7.6</v>
       </c>
       <c r="J15" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="L15" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Moacir Marques Correia</t>
+          <t>Gilson Marques Pinto</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>8.5</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="E16" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="F16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L16" t="n">
         <v>7.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Francisco Rocha Barroso</t>
+          <t>Giovane Leal Ramos</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="E17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>7.9</v>
+        <v>5.5</v>
       </c>
       <c r="G17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="J17" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="L17" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Vitor Andrade Damasceno</t>
+          <t>Gisele Couto Queiroz</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" t="n">
         <v>10</v>
       </c>
-      <c r="D18" t="n">
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
         <v>6</v>
       </c>
-      <c r="E18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>6.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Conrado Yamada Pires</t>
+          <t>Janaína Pedroso Bernardes</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>8.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
         <v>8</v>
       </c>
-      <c r="F19" t="n">
-        <v>6.9</v>
-      </c>
       <c r="G19" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I19" t="n">
         <v>9.1</v>
       </c>
       <c r="J19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="L19" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Geraldo Melo Linhares</t>
+          <t>Juliana Watanabe Gomes</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.3</v>
+        <v>8.5</v>
       </c>
       <c r="C20" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="E20" t="n">
-        <v>6.8</v>
+        <v>3.1</v>
       </c>
       <c r="F20" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="G20" t="n">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
         <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="K20" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Giovane Leal Ramos</t>
+          <t>Jéssica Clemente Cabral</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="D21" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F21" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>6.9</v>
+        <v>5.2</v>
       </c>
       <c r="L21" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Adelaide Takeda Sá</t>
+          <t>Kléber Rosa dos Reis</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="D22" t="n">
         <v>7.4</v>
       </c>
       <c r="E22" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="F22" t="n">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="G22" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="H22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K22" t="n">
         <v>6</v>
       </c>
-      <c r="I22" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>7.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Teresa Fonseca Alencar</t>
+          <t>Lúcio Macedo Magalhães</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>9.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="D23" t="n">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>4.9</v>
       </c>
       <c r="F23" t="n">
-        <v>8.4</v>
+        <v>5.1</v>
       </c>
       <c r="G23" t="n">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="H23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>9.699999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="J23" t="n">
-        <v>9.699999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="K23" t="n">
-        <v>9.199999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="L23" t="n">
-        <v>9.199999999999999</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Paola Meireles Canto</t>
+          <t>Marcelo Cruz Justino</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="C24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="E24" t="n">
         <v>7.8</v>
       </c>
       <c r="F24" t="n">
-        <v>4.9</v>
+        <v>6.7</v>
       </c>
       <c r="G24" t="n">
         <v>7.5</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
         <v>9.1</v>
       </c>
       <c r="J24" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="K24" t="n">
-        <v>6.9</v>
+        <v>8.9</v>
       </c>
       <c r="L24" t="n">
-        <v>8.699999999999999</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Miriam Santos Furtado</t>
+          <t>Marília Correia Pires</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="D25" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="E25" t="n">
-        <v>7.8</v>
+        <v>4.3</v>
       </c>
       <c r="F25" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="H25" t="n">
         <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="J25" t="n">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="L25" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Márcia Ruiz Medina</t>
+          <t>Milton Gimenes Batista</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="D26" t="n">
         <v>6.1</v>
       </c>
       <c r="E26" t="n">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="F26" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="G26" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="H26" t="n">
         <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J26" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="K26" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="L26" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Daniela Pinto Lobo</t>
+          <t>Miriam Santos Furtado</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>7.5</v>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="D27" t="n">
-        <v>4.6</v>
+        <v>6.9</v>
       </c>
       <c r="E27" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="F27" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G27" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="H27" t="n">
         <v>6</v>
       </c>
       <c r="I27" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="J27" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Ágata Andrade de Assis</t>
+          <t>Moacir Marques Correia</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.5</v>
+        <v>6.3</v>
       </c>
       <c r="C28" t="n">
         <v>8.5</v>
       </c>
       <c r="D28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
         <v>7.2</v>
       </c>
       <c r="F28" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="H28" t="n">
         <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>8.300000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="J28" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Marília Correia Pires</t>
+          <t>Márcia Ruiz Medina</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="C29" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="D29" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="E29" t="n">
-        <v>4.3</v>
+        <v>6.7</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="G29" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="H29" t="n">
         <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J29" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="K29" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L29" t="n">
         <v>5.7</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Juliana Watanabe Gomes</t>
+          <t>Paola Meireles Canto</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D30" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="E30" t="n">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="F30" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="G30" t="n">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="H30" t="n">
         <v>6</v>
       </c>
       <c r="I30" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K30" t="n">
         <v>6.9</v>
       </c>
-      <c r="J30" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.4</v>
-      </c>
       <c r="L30" t="n">
-        <v>5.4</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Janaína Pedroso Bernardes</t>
+          <t>Rafaela Assunção Medeiras</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>8</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="D31" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="E31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H31" t="n">
         <v>8</v>
       </c>
-      <c r="G31" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6.5</v>
-      </c>
       <c r="I31" t="n">
-        <v>9.1</v>
+        <v>9.5</v>
       </c>
       <c r="J31" t="n">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="K31" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="L31" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Eloísa Magalhães Lobo</t>
+          <t>Reginaldo Belluci Madruga</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="C32" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="D32" t="n">
         <v>6.8</v>
       </c>
       <c r="E32" t="n">
-        <v>8.9</v>
+        <v>5.6</v>
       </c>
       <c r="F32" t="n">
-        <v>7.5</v>
+        <v>5.6</v>
       </c>
       <c r="G32" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="H32" t="n">
         <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="K32" t="n">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="L32" t="n">
-        <v>9.800000000000001</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Rafaela Assunção Medeiras</t>
+          <t>Roberto Tavares Cerqueira</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C33" t="n">
         <v>9.5</v>
       </c>
       <c r="D33" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="F33" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="G33" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="K33" t="n">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="L33" t="n">
         <v>6.9</v>
@@ -1781,161 +1782,161 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Daiana Saraiva Lacerda</t>
+          <t>Tadeu Fontes Paim</t>
         </is>
       </c>
       <c r="B34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H34" t="n">
         <v>6</v>
       </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
-      </c>
-      <c r="G34" t="n">
-        <v>6</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K34" t="n">
         <v>7</v>
       </c>
-      <c r="I34" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>7.7</v>
-      </c>
       <c r="L34" t="n">
-        <v>3.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Gisele Couto Queiroz</t>
+          <t>Teresa Fonseca Alencar</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="E35" t="n">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
       <c r="G35" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>6.5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Caroline Pessoa Bernardes</t>
+          <t>Vitor Andrade Damasceno</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="F36" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="G36" t="n">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="H36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J36" t="n">
         <v>8.9</v>
       </c>
-      <c r="I36" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="K36" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="L36" t="n">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Jéssica Clemente Cabral</t>
+          <t>Ágata Andrade de Assis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="C37" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="D37" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="E37" t="n">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="F37" t="n">
-        <v>3.8</v>
+        <v>6.6</v>
       </c>
       <c r="G37" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>6.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>9.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="K37" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="L37" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>
@@ -2022,38 +2023,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Roberto Tavares Cerqueira</t>
+          <t>Adelaide Takeda Sá</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="D2" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="F2" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="G2" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>7.1</v>
+        <v>5.9</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="L2" t="n">
         <v>7.1</v>
@@ -2062,41 +2063,41 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Lúcio Macedo Magalhães</t>
+          <t>Arthur Nunes Delchiaro</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>7.4</v>
       </c>
       <c r="C3" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="E3" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="K3" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="L3" t="n">
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="4">
@@ -2142,583 +2143,583 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Erasmo Vale Belchior</t>
+          <t>Carlos Bosco Ferraz</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="C5" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>8.1</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>6.4</v>
+        <v>8.1</v>
       </c>
       <c r="K5" t="n">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Tadeu Fontes Paim</t>
+          <t>Carlos Serrano Silveira</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="C6" t="n">
-        <v>8.1</v>
+        <v>9.6</v>
       </c>
       <c r="D6" t="n">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="F6" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>8.6</v>
       </c>
       <c r="J6" t="n">
-        <v>6.9</v>
+        <v>9.9</v>
       </c>
       <c r="K6" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Arthur Nunes Delchiaro</t>
+          <t>Caroline Pessoa Bernardes</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="D7" t="n">
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="F7" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="G7" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="J7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>8.1</v>
+        <v>7.4</v>
       </c>
       <c r="L7" t="n">
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Gilson Marques Pinto</t>
+          <t>Conrado Yamada Pires</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G8" t="n">
         <v>7.6</v>
       </c>
-      <c r="C8" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8.699999999999999</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="K8" t="n">
-        <v>8.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Reginaldo Belluci Madruga</t>
+          <t>Daiana Saraiva Lacerda</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="D9" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="E9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G9" t="n">
-        <v>6.7</v>
+        <v>5.1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="L9" t="n">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Carlos Serrano Silveira</t>
+          <t>Daniela Pinto Lobo</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>9.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="E10" t="n">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="F10" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="G10" t="n">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
       </c>
       <c r="I10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K10" t="n">
         <v>8.6</v>
       </c>
-      <c r="J10" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7.7</v>
-      </c>
       <c r="L10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Milton Gimenes Batista</t>
+          <t>Eloísa Magalhães Lobo</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="D11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>5.1</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Gabriel Leitão Falcão</t>
+          <t>Erasmo Vale Belchior</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="D12" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E12" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E12" t="n">
-        <v>9.1</v>
-      </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="G12" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>8.1</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="L12" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Marcelo Cruz Justino</t>
+          <t>Francisco Rocha Barroso</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="C13" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>9.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="E13" t="n">
-        <v>9.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="F13" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
         <v>7.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
       </c>
       <c r="J13" t="n">
         <v>7.5</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="L13" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Carlos Bosco Ferraz</t>
+          <t>Gabriel Leitão Falcão</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="F14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="J14" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>8.1</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Kléber Rosa dos Reis</t>
+          <t>Geraldo Melo Linhares</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C15" t="n">
         <v>7.7</v>
       </c>
-      <c r="C15" t="n">
-        <v>9.4</v>
-      </c>
       <c r="D15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="E15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L15" t="n">
         <v>8.1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Moacir Marques Correia</t>
+          <t>Gilson Marques Pinto</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="C16" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
         <v>8.1</v>
       </c>
-      <c r="D16" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.7</v>
-      </c>
       <c r="L16" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Francisco Rocha Barroso</t>
+          <t>Giovane Leal Ramos</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.4</v>
+        <v>7.7</v>
       </c>
       <c r="C17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="D17" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>7.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>8.9</v>
+        <v>6.2</v>
       </c>
       <c r="G17" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
       </c>
       <c r="I17" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L17" t="n">
         <v>7.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Vitor Andrade Damasceno</t>
+          <t>Gisele Couto Queiroz</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9.4</v>
+        <v>6.5</v>
       </c>
       <c r="C18" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="D18" t="n">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="F18" t="n">
-        <v>8.5</v>
+        <v>5.2</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>8.699999999999999</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Conrado Yamada Pires</t>
+          <t>Janaína Pedroso Bernardes</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>9.4</v>
       </c>
       <c r="C19" t="n">
-        <v>7.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>7.3</v>
+        <v>9.6</v>
       </c>
       <c r="F19" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="G19" t="n">
         <v>7.6</v>
@@ -2727,736 +2728,736 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>8.1</v>
       </c>
       <c r="J19" t="n">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="K19" t="n">
-        <v>9.699999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L19" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Geraldo Melo Linhares</t>
+          <t>Juliana Watanabe Gomes</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="C20" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="D20" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="E20" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="F20" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L20" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Giovane Leal Ramos</t>
+          <t>Jéssica Clemente Cabral</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.7</v>
+        <v>3.6</v>
       </c>
       <c r="C21" t="n">
         <v>8.4</v>
       </c>
       <c r="D21" t="n">
-        <v>8.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>9.699999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="F21" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.1</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>6.1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="L21" t="n">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Adelaide Takeda Sá</t>
+          <t>Kléber Rosa dos Reis</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="C22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E22" t="n">
         <v>8.1</v>
       </c>
-      <c r="D22" t="n">
-        <v>9</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7.1</v>
-      </c>
       <c r="F22" t="n">
-        <v>6.3</v>
+        <v>4.9</v>
       </c>
       <c r="G22" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>6.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Teresa Fonseca Alencar</t>
+          <t>Lúcio Macedo Magalhães</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="C23" t="n">
-        <v>9.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="D23" t="n">
-        <v>9.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="E23" t="n">
-        <v>8.9</v>
+        <v>3.5</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="G23" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="L23" t="n">
-        <v>8.800000000000001</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Paola Meireles Canto</t>
+          <t>Marcelo Cruz Justino</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I24" t="n">
         <v>9</v>
       </c>
-      <c r="C24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="E24" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="G24" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6.2</v>
-      </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="K24" t="n">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Miriam Santos Furtado</t>
+          <t>Marília Correia Pires</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="D25" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="E25" t="n">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G25" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="J25" t="n">
         <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Márcia Ruiz Medina</t>
+          <t>Milton Gimenes Batista</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="C26" t="n">
-        <v>6.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="F26" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="K26" t="n">
         <v>7.7</v>
       </c>
       <c r="L26" t="n">
-        <v>7.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Daniela Pinto Lobo</t>
+          <t>Miriam Santos Furtado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="C27" t="n">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="D27" t="n">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="E27" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="F27" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="G27" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="H27" t="n">
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Ágata Andrade de Assis</t>
+          <t>Moacir Marques Correia</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C28" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E28" t="n">
         <v>9.6</v>
       </c>
-      <c r="D28" t="n">
-        <v>10</v>
-      </c>
-      <c r="E28" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="G28" t="n">
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="H28" t="n">
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K28" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L28" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Marília Correia Pires</t>
+          <t>Márcia Ruiz Medina</t>
         </is>
       </c>
       <c r="B29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
         <v>6</v>
       </c>
-      <c r="C29" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D29" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5</v>
-      </c>
       <c r="F29" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="H29" t="n">
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="J29" t="n">
         <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="L29" t="n">
-        <v>2.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Juliana Watanabe Gomes</t>
+          <t>Paola Meireles Canto</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>6.8</v>
+        <v>9.5</v>
       </c>
       <c r="D30" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="E30" t="n">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Janaína Pedroso Bernardes</t>
+          <t>Rafaela Assunção Medeiras</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.4</v>
+        <v>6.3</v>
       </c>
       <c r="C31" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="D31" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="F31" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="H31" t="n">
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
       <c r="K31" t="n">
         <v>7.8</v>
       </c>
       <c r="L31" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Eloísa Magalhães Lobo</t>
+          <t>Reginaldo Belluci Madruga</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="D32" t="n">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="E32" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G32" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="J32" t="n">
         <v>6</v>
       </c>
       <c r="K32" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L32" t="n">
-        <v>8.300000000000001</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Rafaela Assunção Medeiras</t>
+          <t>Roberto Tavares Cerqueira</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E33" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="F33" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>6</v>
+      </c>
+      <c r="K33" t="n">
         <v>8</v>
       </c>
-      <c r="G33" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>7.8</v>
-      </c>
       <c r="L33" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Daiana Saraiva Lacerda</t>
+          <t>Tadeu Fontes Paim</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="C34" t="n">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="D34" t="n">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="E34" t="n">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="G34" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H34" t="n">
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="J34" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="K34" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="L34" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Gisele Couto Queiroz</t>
+          <t>Teresa Fonseca Alencar</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>7.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>7.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>4.2</v>
+        <v>8.9</v>
       </c>
       <c r="F35" t="n">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>9.1</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Caroline Pessoa Bernardes</t>
+          <t>Vitor Andrade Damasceno</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.6</v>
+        <v>9.4</v>
       </c>
       <c r="C36" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="D36" t="n">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="E36" t="n">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>5.7</v>
+        <v>8.5</v>
       </c>
       <c r="G36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="J36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="K36" t="n">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Jéssica Clemente Cabral</t>
+          <t>Ágata Andrade de Assis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.6</v>
+        <v>6.9</v>
       </c>
       <c r="C37" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="D37" t="n">
         <v>10</v>
       </c>
       <c r="E37" t="n">
-        <v>5.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3.6</v>
+        <v>7.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
@@ -3543,81 +3544,81 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Roberto Tavares Cerqueira</t>
+          <t>Adelaide Takeda Sá</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J2" t="n">
         <v>4.4</v>
       </c>
-      <c r="C2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10</v>
-      </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Lúcio Macedo Magalhães</t>
+          <t>Arthur Nunes Delchiaro</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F3" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="C3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.6</v>
-      </c>
       <c r="G3" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="4">
@@ -3627,474 +3628,474 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="C4" t="n">
-        <v>8.9</v>
+        <v>7.3</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="E4" t="n">
-        <v>6.4</v>
+        <v>8.1</v>
       </c>
       <c r="F4" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.9</v>
+        <v>8.1</v>
       </c>
       <c r="H4" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>7.8</v>
       </c>
       <c r="K4" t="n">
-        <v>9.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>6.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Erasmo Vale Belchior</t>
+          <t>Carlos Bosco Ferraz</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G5" t="n">
         <v>7.4</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
         <v>7.2</v>
       </c>
-      <c r="G5" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.6</v>
-      </c>
       <c r="K5" t="n">
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="L5" t="n">
-        <v>7.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Tadeu Fontes Paim</t>
+          <t>Carlos Serrano Silveira</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="C6" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>4.2</v>
+        <v>9.4</v>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>5.3</v>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>6.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.1</v>
+        <v>6.8</v>
       </c>
       <c r="I6" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K6" t="n">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>6.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Arthur Nunes Delchiaro</t>
+          <t>Caroline Pessoa Bernardes</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J7" t="n">
         <v>6.4</v>
       </c>
-      <c r="C7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8.4</v>
-      </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="L7" t="n">
-        <v>7.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Gilson Marques Pinto</t>
+          <t>Conrado Yamada Pires</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G8" t="n">
         <v>6.9</v>
       </c>
-      <c r="D8" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.6</v>
-      </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="I8" t="n">
         <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>8.6</v>
       </c>
       <c r="K8" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Reginaldo Belluci Madruga</t>
+          <t>Daiana Saraiva Lacerda</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
         <v>9.6</v>
       </c>
-      <c r="C9" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9</v>
-      </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>8.9</v>
       </c>
       <c r="L9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Carlos Serrano Silveira</t>
+          <t>Daniela Pinto Lobo</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="C10" t="n">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="D10" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="E10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L10" t="n">
         <v>6.2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Milton Gimenes Batista</t>
+          <t>Eloísa Magalhães Lobo</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.6</v>
+        <v>8.9</v>
       </c>
       <c r="C11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K11" t="n">
         <v>7.8</v>
       </c>
-      <c r="D11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6</v>
-      </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Gabriel Leitão Falcão</t>
+          <t>Erasmo Vale Belchior</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="C12" t="n">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>8.4</v>
+        <v>5.4</v>
       </c>
       <c r="E12" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="F12" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>6.3</v>
+        <v>4.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L12" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Marcelo Cruz Justino</t>
+          <t>Francisco Rocha Barroso</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="C13" t="n">
-        <v>9.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="E13" t="n">
-        <v>8.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="F13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="H13" t="n">
-        <v>7.8</v>
+        <v>2.6</v>
       </c>
       <c r="I13" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="K13" t="n">
-        <v>9.4</v>
+        <v>7.5</v>
       </c>
       <c r="L13" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Carlos Bosco Ferraz</t>
+          <t>Gabriel Leitão Falcão</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="C14" t="n">
-        <v>9.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="D14" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="E14" t="n">
-        <v>9.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>6.9</v>
       </c>
       <c r="G14" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="I14" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="J14" t="n">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="K14" t="n">
-        <v>6.2</v>
+        <v>9.1</v>
       </c>
       <c r="L14" t="n">
-        <v>9.800000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Kléber Rosa dos Reis</t>
+          <t>Geraldo Melo Linhares</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="C15" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>4.4</v>
+        <v>6.3</v>
       </c>
       <c r="E15" t="n">
-        <v>9.9</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="G15" t="n">
-        <v>7.4</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>7.6</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
         <v>7.8</v>
@@ -4103,881 +4104,881 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Moacir Marques Correia</t>
+          <t>Gilson Marques Pinto</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.6</v>
+        <v>7.8</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="D16" t="n">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="E16" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="F16" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="G16" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="I16" t="n">
-        <v>8.9</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
       <c r="K16" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="L16" t="n">
-        <v>6.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Francisco Rocha Barroso</t>
+          <t>Giovane Leal Ramos</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="D17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="E17" t="n">
-        <v>4.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>9.1</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
         <v>9.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="L17" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Vitor Andrade Damasceno</t>
+          <t>Gisele Couto Queiroz</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="C18" t="n">
-        <v>7.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
       <c r="F18" t="n">
-        <v>6.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>6.9</v>
       </c>
       <c r="I18" t="n">
-        <v>9.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>9.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="K18" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="L18" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Conrado Yamada Pires</t>
+          <t>Janaína Pedroso Bernardes</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>5.5</v>
+        <v>9.9</v>
       </c>
       <c r="D19" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="E19" t="n">
-        <v>7.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>9.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="G19" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
         <v>8.6</v>
       </c>
       <c r="J19" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Geraldo Melo Linhares</t>
+          <t>Juliana Watanabe Gomes</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="C20" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="D20" t="n">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="F20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L20" t="n">
         <v>5.4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Giovane Leal Ramos</t>
+          <t>Jéssica Clemente Cabral</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="C21" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="D21" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="E21" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="G21" t="n">
-        <v>6.3</v>
+        <v>4.6</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>9.9</v>
       </c>
       <c r="K21" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L21" t="n">
-        <v>5.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Adelaide Takeda Sá</t>
+          <t>Kléber Rosa dos Reis</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>9.4</v>
       </c>
       <c r="D22" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="E22" t="n">
-        <v>7.8</v>
+        <v>5.4</v>
       </c>
       <c r="F22" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="G22" t="n">
-        <v>5.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I22" t="n">
         <v>5.9</v>
       </c>
-      <c r="I22" t="n">
-        <v>6.5</v>
-      </c>
       <c r="J22" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="K22" t="n">
+        <v>8</v>
+      </c>
+      <c r="L22" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Teresa Fonseca Alencar</t>
+          <t>Lúcio Macedo Magalhães</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>7.7</v>
       </c>
       <c r="C23" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="D23" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="E23" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="F23" t="n">
-        <v>9.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="I23" t="n">
-        <v>8.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="J23" t="n">
-        <v>7.4</v>
+        <v>2.2</v>
       </c>
       <c r="K23" t="n">
-        <v>9.6</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Paola Meireles Canto</t>
+          <t>Marcelo Cruz Justino</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H24" t="n">
         <v>8.4</v>
       </c>
-      <c r="C24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E24" t="n">
-        <v>8</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
       <c r="I24" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="J24" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="K24" t="n">
-        <v>6.7</v>
+        <v>9.4</v>
       </c>
       <c r="L24" t="n">
-        <v>4.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Miriam Santos Furtado</t>
+          <t>Marília Correia Pires</t>
         </is>
       </c>
       <c r="B25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E25" t="n">
         <v>8.4</v>
       </c>
-      <c r="C25" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E25" t="n">
-        <v>4.4</v>
-      </c>
       <c r="F25" t="n">
-        <v>1.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>8.800000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K25" t="n">
         <v>6.7</v>
       </c>
-      <c r="J25" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L25" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Márcia Ruiz Medina</t>
+          <t>Milton Gimenes Batista</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.2</v>
+        <v>4.6</v>
       </c>
       <c r="C26" t="n">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F26" t="n">
         <v>4.2</v>
       </c>
-      <c r="E26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7.5</v>
-      </c>
       <c r="G26" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="H26" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="J26" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="K26" t="n">
-        <v>8.1</v>
+        <v>6.2</v>
       </c>
       <c r="L26" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Daniela Pinto Lobo</t>
+          <t>Miriam Santos Furtado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="C27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>8.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="H27" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="K27" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="L27" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Ágata Andrade de Assis</t>
+          <t>Moacir Marques Correia</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="C28" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F28" t="n">
         <v>6</v>
       </c>
-      <c r="D28" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F28" t="n">
-        <v>5.3</v>
-      </c>
       <c r="G28" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="H28" t="n">
         <v>2.8</v>
       </c>
       <c r="I28" t="n">
-        <v>7.6</v>
+        <v>3.7</v>
       </c>
       <c r="J28" t="n">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="K28" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L28" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Marília Correia Pires</t>
+          <t>Márcia Ruiz Medina</t>
         </is>
       </c>
       <c r="B29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L29" t="n">
         <v>4.3</v>
-      </c>
-      <c r="C29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="D29" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="G29" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Juliana Watanabe Gomes</t>
+          <t>Paola Meireles Canto</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="C30" t="n">
-        <v>8.9</v>
+        <v>5.7</v>
       </c>
       <c r="D30" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="E30" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="G30" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="H30" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="I30" t="n">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="J30" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>7.8</v>
       </c>
       <c r="L30" t="n">
-        <v>3.8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Janaína Pedroso Bernardes</t>
+          <t>Rafaela Assunção Medeiras</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="C31" t="n">
-        <v>9.9</v>
+        <v>8.6</v>
       </c>
       <c r="D31" t="n">
-        <v>5.6</v>
+        <v>7.9</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="F31" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>7.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>9.300000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="K31" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="L31" t="n">
-        <v>8.199999999999999</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Eloísa Magalhães Lobo</t>
+          <t>Reginaldo Belluci Madruga</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="D32" t="n">
-        <v>4.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="F32" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="H32" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="J32" t="n">
-        <v>9.800000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="K32" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
-        <v>9.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Rafaela Assunção Medeiras</t>
+          <t>Roberto Tavares Cerqueira</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="C33" t="n">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="E33" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="G33" t="n">
-        <v>8.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="H33" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="I33" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="J33" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="K33" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L33" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Daiana Saraiva Lacerda</t>
+          <t>Tadeu Fontes Paim</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>3.7</v>
+        <v>7.3</v>
       </c>
       <c r="D34" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J34" t="n">
         <v>7</v>
       </c>
-      <c r="E34" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="G34" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H34" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>7.4</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>8</v>
-      </c>
-      <c r="K34" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Gisele Couto Queiroz</t>
+          <t>Teresa Fonseca Alencar</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="C35" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E35" t="n">
         <v>9</v>
       </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K35" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L35" t="n">
         <v>7.4</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="n">
-        <v>5</v>
-      </c>
-      <c r="H35" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J35" t="n">
-        <v>9</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Caroline Pessoa Bernardes</t>
+          <t>Vitor Andrade Damasceno</t>
         </is>
       </c>
       <c r="B36" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J36" t="n">
         <v>7.6</v>
       </c>
-      <c r="C36" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D36" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="E36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F36" t="n">
-        <v>8</v>
-      </c>
-      <c r="G36" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-      <c r="I36" t="n">
-        <v>10</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9.6</v>
-      </c>
       <c r="K36" t="n">
-        <v>4.3</v>
+        <v>8.6</v>
       </c>
       <c r="L36" t="n">
-        <v>5.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Jéssica Clemente Cabral</t>
+          <t>Ágata Andrade de Assis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>5.1</v>
       </c>
       <c r="D37" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="E37" t="n">
-        <v>9.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="F37" t="n">
-        <v>4.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>2.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="K37" t="n">
-        <v>8.6</v>
+        <v>4.2</v>
       </c>
       <c r="L37" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
@@ -5148,37 +5149,1913 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.144444444444444</v>
+        <v>6.399999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>7.613888888888888</v>
+        <v>7.558333333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>6.941666666666666</v>
+        <v>6.797222222222222</v>
       </c>
       <c r="E4" t="n">
-        <v>6.677777777777778</v>
+        <v>6.46388888888889</v>
       </c>
       <c r="F4" t="n">
-        <v>6.213888888888889</v>
+        <v>6.688888888888888</v>
       </c>
       <c r="G4" t="n">
-        <v>6.994444444444444</v>
+        <v>6.355555555555555</v>
       </c>
       <c r="H4" t="n">
-        <v>4.469444444444444</v>
+        <v>4.458333333333332</v>
       </c>
       <c r="I4" t="n">
-        <v>6.913888888888889</v>
+        <v>6.311111111111112</v>
       </c>
       <c r="J4" t="n">
-        <v>6.913888888888888</v>
+        <v>6.830555555555556</v>
       </c>
       <c r="K4" t="n">
-        <v>6.938888888888889</v>
+        <v>6.588888888888889</v>
       </c>
       <c r="L4" t="n">
-        <v>6.300000000000001</v>
+        <v>5.949999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo de deslocamento diário</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo de prática de esportes semanal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo de jogo semanal</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo investido em leitura(lazer) semanalmente</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo investido em séries semanalmente</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meio de Transporte</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Matérias preferidas</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Séries preferidas</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Preferência exercício físico/esportes</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Preferência VideoGames</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Adelaide Takeda Sá</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>19</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Metrô, Ônibus</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FIL, FRA, HIS, GEO</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Futebol, Natação</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>DotA2, Fortnite</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Arthur Nunes Delchiaro</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A pé, Metrô, Bicicleta, Van</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HIS</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Nenhum, Academia</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Lol, Xadrez, Fortnite</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Artur Furtado Rosário</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ônibus, Bicicleta, Metrô, Van</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HIS</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Balé, Corrida, Nenhum, Academia</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Fortnite, Fifa, Xadrez</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carlos Bosco Ferraz</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Uber, A pé</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>FIL, HIS, FRA, BIO, QUI, FIS, SOC</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>The Office</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Corrida</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Fortnite, Xadrez, Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carlos Serrano Silveira</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A pé, Bicicleta</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>BIO, MAT, FIL, QUI, FIS, HIS</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Futebol, Corrida, Academia, Vôlei</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Lol, DotA2, Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caroline Pessoa Bernardes</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>29</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bicicleta, A pé, Metrô</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>HIS, SOC</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Balé, Academia, Futebol, Corrida</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Xadrez, Minecraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conrado Yamada Pires</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Van, Ônibus</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>POR, GEO, BIO</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Nenhum, Natação, Balé</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Minecraft, Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Daiana Saraiva Lacerda</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>FRA, FIS, GEO, QUI, SOC</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Balé, Corrida, Nenhum, Futebol</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Lol, Fifa, DotA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Daniela Pinto Lobo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>28</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bicicleta</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>HIS, FIL, MAT, SOC, FRA</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Nenhum, Corrida, Vôlei, Academia</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Fortnite, Minecraft, Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eloísa Magalhães Lobo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>26</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Uber</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>SOC, FRA, BIO, POR, DES, QUI, GEO</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Corrida</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>DotA2, Fortnite, Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Erasmo Vale Belchior</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>16</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>27</v>
+      </c>
+      <c r="G12" t="n">
+        <v>26</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Uber, Bicicleta, Metrô, A pé</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>MAT, BIO, DES, GEO, HIS, SOC</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Balé, Natação, Academia</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DotA2, Xadrez</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Francisco Rocha Barroso</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>18</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ônibus, Van</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>FIL, FRA, SOC, HIS, BIO, GEO, POR, QUI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Vôlei, Academia, Natação, Balé</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Fortnite, Minecraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Gabriel Leitão Falcão</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>18</v>
+      </c>
+      <c r="F14" t="n">
+        <v>23</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>A pé, Metrô, Bicicleta</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>GEO, FIS, MAT</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Academia, Balé</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Lol, DotA2, Fortnite</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Geraldo Melo Linhares</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26</v>
+      </c>
+      <c r="F15" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Uber, Carro</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>BIO, DES</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>The Office</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Vôlei, Academia, Futebol, Balé</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Xadrez, Fifa, Minecraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gilson Marques Pinto</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>23</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Van, Uber, Ônibus</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Nenhum, Vôlei, Natação</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Giovane Leal Ramos</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>28</v>
+      </c>
+      <c r="F17" t="n">
+        <v>27</v>
+      </c>
+      <c r="G17" t="n">
+        <v>27</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Carro, Bicicleta, Van, Metrô</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>FIL, SOC, DES, FRA</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Futebol, Corrida, Natação</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Minecraft, Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gisele Couto Queiroz</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>28</v>
+      </c>
+      <c r="G18" t="n">
+        <v>26</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ônibus, Van, Metrô, Uber</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>QUI, HIS, SOC, DES, BIO, MAT, FIL, GEO</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Nenhum, Futebol</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Xadrez, DotA2, Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Janaína Pedroso Bernardes</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A pé, Bicicleta</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>FIS, POR, HIS, GEO, BIO, MAT, FIL</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>DotA2, Xadrez, Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Juliana Watanabe Gomes</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>24</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Uber, Bicicleta, Van, Metrô</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>FRA, GEO, FIS, HIS, QUI, FIL</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Vôlei</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Fortnite, DotA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jéssica Clemente Cabral</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Metrô, Uber, Ônibus, A pé</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DES, FIL</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Academia, Vôlei, Corrida, Balé</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Minecraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Kléber Rosa dos Reis</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>17</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>27</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>QUI, MAT</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Balé, Corrida, Futebol, Vôlei</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>DotA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Lúcio Macedo Magalhães</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>19</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A pé, Carro</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>FIL</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Academia</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>DotA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Marcelo Cruz Justino</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" t="n">
+        <v>18</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Bicicleta</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SOC, POR, BIO, MAT, GEO, FIL, HIS, FIS</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Academia, Corrida, Nenhum, Futebol</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Xadrez, DotA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Marília Correia Pires</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>13</v>
+      </c>
+      <c r="D25" t="n">
+        <v>12</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>21</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Carro, A pé, Ônibus, Bicicleta</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>BIO, FRA, GEO, MAT, FIL, FIS</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>The Office</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Balé, Corrida, Vôlei</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Fortnite, Minecraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Milton Gimenes Batista</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>22</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30</v>
+      </c>
+      <c r="G26" t="n">
+        <v>29</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Van, Carro</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>HIS</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Balé, Corrida, Futebol, Nenhum</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Minecraft, Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Miriam Santos Furtado</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>19</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Ônibus, Bicicleta, Metrô</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>POR, SOC, QUI, FRA, GEO, FIS, HIS</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>The Office</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Fortnite, Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Moacir Marques Correia</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+      <c r="E28" t="n">
+        <v>17</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>16</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Metrô, Carro, Van, A pé</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>DES, HIS, FIS, QUI, SOC, POR</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Nenhum, Corrida</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Lol, Minecraft, Xadrez</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Márcia Ruiz Medina</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" t="n">
+        <v>26</v>
+      </c>
+      <c r="E29" t="n">
+        <v>21</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>A pé, Uber, Ônibus</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>GEO, QUI, SOC, POR, DES, FIL, FRA</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Greys anatomy</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Nenhum, Natação, Balé, Corrida</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Paola Meireles Canto</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>18</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>24</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Carro, Metrô</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>FIL, FRA, QUI</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Balé, Futebol, Nenhum</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>DotA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rafaela Assunção Medeiras</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>13</v>
+      </c>
+      <c r="D31" t="n">
+        <v>27</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" t="n">
+        <v>27</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Ônibus, Bicicleta, Uber, Van</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>POR, SOC, MAT, FIL, QUI, BIO, DES</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Corrida, Nenhum, Futebol, Natação</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Lol, Fortnite, Minecraft</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Reginaldo Belluci Madruga</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>27</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" t="n">
+        <v>22</v>
+      </c>
+      <c r="F32" t="n">
+        <v>18</v>
+      </c>
+      <c r="G32" t="n">
+        <v>22</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Uber, Metrô, Carro, A pé</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>BIO, HIS, FIL</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Academia, Futebol, Natação, Balé</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Fifa, DotA2, Lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Roberto Tavares Cerqueira</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>17</v>
+      </c>
+      <c r="D33" t="n">
+        <v>25</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Uber</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>BIO, SOC, HIS, FIS</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>The Office</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Nenhum</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Fifa, Xadrez</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Tadeu Fontes Paim</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>17</v>
+      </c>
+      <c r="D34" t="n">
+        <v>30</v>
+      </c>
+      <c r="E34" t="n">
+        <v>18</v>
+      </c>
+      <c r="F34" t="n">
+        <v>18</v>
+      </c>
+      <c r="G34" t="n">
+        <v>27</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Bicicleta, Ônibus, Uber</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>GEO, FIS, SOC, FRA, HIS, QUI, DES</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Nenhum, Balé, Vôlei, Academia</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Teresa Fonseca Alencar</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>19</v>
+      </c>
+      <c r="D35" t="n">
+        <v>28</v>
+      </c>
+      <c r="E35" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14</v>
+      </c>
+      <c r="G35" t="n">
+        <v>26</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>A pé</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>GEO, MAT, HIS</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Balé, Corrida, Natação, Vôlei</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Xadrez, Fifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Vitor Andrade Damasceno</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>23</v>
+      </c>
+      <c r="G36" t="n">
+        <v>22</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Bicicleta</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>GEO, POR, FIL, HIS, QUI, FIS, DES</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Game of Thrones</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Balé</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Fifa, Xadrez</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ágata Andrade de Assis</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>25</v>
+      </c>
+      <c r="F37" t="n">
+        <v>30</v>
+      </c>
+      <c r="G37" t="n">
+        <v>28</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Bicicleta, Uber</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>DES, BIO</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Avatar</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Vôlei, Futebol, Corrida</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Minecraft, DotA2</t>
+        </is>
       </c>
     </row>
   </sheetData>
